--- a/Readme.xlsx
+++ b/Readme.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asif\OneDrive\My_Projects\Mine\Apps\Medical Forms App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CCE63A-3F9C-4A0D-8702-DFC51BA924B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A9C4B4-0702-4498-8C43-DCB59E0FB3CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,7 +115,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -126,28 +126,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -165,8 +144,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41AF5033-F417-4FC3-B7C6-77CD51345174}" name="Table1" displayName="Table1" ref="A1:D6" totalsRowShown="0">
-  <autoFilter ref="A1:D6" xr:uid="{3B7235C3-6908-4157-8EF9-C5244C6B6B9B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41AF5033-F417-4FC3-B7C6-77CD51345174}" name="Table1" displayName="Table1" ref="A1:D7" totalsRowShown="0">
+  <autoFilter ref="A1:D7" xr:uid="{3B7235C3-6908-4157-8EF9-C5244C6B6B9B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D6">
     <sortCondition ref="A1:A6"/>
   </sortState>
@@ -443,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -541,12 +520,17 @@
         <v>7</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Folder"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"File"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Readme.xlsx
+++ b/Readme.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asif\OneDrive\My_Projects\Mine\Apps\Medical Forms App\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asif\OneDrive\My_Projects\Mine\Apps\MedicalFormsApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A9C4B4-0702-4498-8C43-DCB59E0FB3CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFA9AFB-9D0D-4907-914B-4E02811663C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Files" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>No.</t>
   </si>
@@ -74,6 +74,18 @@
   </si>
   <si>
     <t>Visual Studio Code project folder</t>
+  </si>
+  <si>
+    <t>Readme.md</t>
+  </si>
+  <si>
+    <t>.git</t>
+  </si>
+  <si>
+    <t>Git file saying what the project is all about</t>
+  </si>
+  <si>
+    <t>Git folder tracking changes and commits. Source files are hosted on GitHub in a Private Repo.</t>
   </si>
 </sst>
 </file>
@@ -143,11 +155,7395 @@
 </styleSheet>
 </file>
 
+<file path=xl/diagrams/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="accent1" pri="11200"/>
+  </dgm:catLst>
+  <dgm:styleLbl name="node0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+</dgm:colorsDef>
+</file>
+
+<file path=xl/diagrams/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="accent1" pri="11200"/>
+  </dgm:catLst>
+  <dgm:styleLbl name="node0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+</dgm:colorsDef>
+</file>
+
+<file path=xl/diagrams/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="accent1" pri="11200"/>
+  </dgm:catLst>
+  <dgm:styleLbl name="node0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+</dgm:colorsDef>
+</file>
+
+<file path=xl/diagrams/data1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dgm:ptLst>
+    <dgm:pt modelId="{6F2C1E18-5E0F-4A6C-AA4D-F8DA05C89786}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/hList1" loCatId="list" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2" csCatId="accent1" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ZA"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{797DE4DB-70F9-4FCB-B00D-DFD4534676FB}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ZA"/>
+            <a:t>Login/Sign-Up</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4E5EC0F5-1113-4CA6-9C33-8958C39DC30B}" type="parTrans" cxnId="{2777046A-3C01-4C49-B591-0555C6ADAC95}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ZA"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{996A8DC2-A6E5-4897-8987-245E4F69B7FE}" type="sibTrans" cxnId="{2777046A-3C01-4C49-B591-0555C6ADAC95}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ZA"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{97F3D34E-450D-41B5-9CB0-B05F294840DA}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ZA"/>
+            <a:t>Standard login page</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{04588F6E-896C-4193-9F7B-602AC9E4FDA3}" type="parTrans" cxnId="{57D578BD-8DC5-4CCD-BE98-045CDCFA9887}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ZA"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7E0B7F38-C1B2-4781-BEA2-756A93EC7D15}" type="sibTrans" cxnId="{57D578BD-8DC5-4CCD-BE98-045CDCFA9887}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ZA"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C4F0EA16-E75D-4192-9F0C-5EC06CA68142}" type="pres">
+      <dgm:prSet presAssocID="{6F2C1E18-5E0F-4A6C-AA4D-F8DA05C89786}" presName="Name0" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:dir/>
+          <dgm:animLvl val="lvl"/>
+          <dgm:resizeHandles val="exact"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6FD84694-CFC9-4680-97C5-E7BE1E6B001A}" type="pres">
+      <dgm:prSet presAssocID="{797DE4DB-70F9-4FCB-B00D-DFD4534676FB}" presName="composite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8F623748-FB17-434F-83BC-FAE2DFA014F9}" type="pres">
+      <dgm:prSet presAssocID="{797DE4DB-70F9-4FCB-B00D-DFD4534676FB}" presName="parTx" presStyleLbl="alignNode1" presStyleIdx="0" presStyleCnt="1" custLinFactNeighborY="-4112">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="0"/>
+          <dgm:chPref val="0"/>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3ED472FB-D928-4CF7-9D01-0D232349CACB}" type="pres">
+      <dgm:prSet presAssocID="{797DE4DB-70F9-4FCB-B00D-DFD4534676FB}" presName="desTx" presStyleLbl="alignAccFollowNode1" presStyleIdx="0" presStyleCnt="1">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+  </dgm:ptLst>
+  <dgm:cxnLst>
+    <dgm:cxn modelId="{3D329766-F423-48BB-9C41-067B0008F4D0}" type="presOf" srcId="{797DE4DB-70F9-4FCB-B00D-DFD4534676FB}" destId="{8F623748-FB17-434F-83BC-FAE2DFA014F9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{2777046A-3C01-4C49-B591-0555C6ADAC95}" srcId="{6F2C1E18-5E0F-4A6C-AA4D-F8DA05C89786}" destId="{797DE4DB-70F9-4FCB-B00D-DFD4534676FB}" srcOrd="0" destOrd="0" parTransId="{4E5EC0F5-1113-4CA6-9C33-8958C39DC30B}" sibTransId="{996A8DC2-A6E5-4897-8987-245E4F69B7FE}"/>
+    <dgm:cxn modelId="{B6E41272-B7DD-4ED4-9181-201B9B10525B}" type="presOf" srcId="{6F2C1E18-5E0F-4A6C-AA4D-F8DA05C89786}" destId="{C4F0EA16-E75D-4192-9F0C-5EC06CA68142}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{B7189CA5-A6B1-4107-9EFA-77565CAEE8FF}" type="presOf" srcId="{97F3D34E-450D-41B5-9CB0-B05F294840DA}" destId="{3ED472FB-D928-4CF7-9D01-0D232349CACB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{57D578BD-8DC5-4CCD-BE98-045CDCFA9887}" srcId="{797DE4DB-70F9-4FCB-B00D-DFD4534676FB}" destId="{97F3D34E-450D-41B5-9CB0-B05F294840DA}" srcOrd="0" destOrd="0" parTransId="{04588F6E-896C-4193-9F7B-602AC9E4FDA3}" sibTransId="{7E0B7F38-C1B2-4781-BEA2-756A93EC7D15}"/>
+    <dgm:cxn modelId="{B9285268-7F32-4751-A2C5-E8C24126C03C}" type="presParOf" srcId="{C4F0EA16-E75D-4192-9F0C-5EC06CA68142}" destId="{6FD84694-CFC9-4680-97C5-E7BE1E6B001A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{BFAF700A-5F0A-4CAC-8528-8F5C1D24FFC3}" type="presParOf" srcId="{6FD84694-CFC9-4680-97C5-E7BE1E6B001A}" destId="{8F623748-FB17-434F-83BC-FAE2DFA014F9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{E685F828-0C81-44BE-AA43-276D0CE71BBA}" type="presParOf" srcId="{6FD84694-CFC9-4680-97C5-E7BE1E6B001A}" destId="{3ED472FB-D928-4CF7-9D01-0D232349CACB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+  </dgm:cxnLst>
+  <dgm:bg/>
+  <dgm:whole/>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId5" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+  </dgm:extLst>
+</dgm:dataModel>
+</file>
+
+<file path=xl/diagrams/data2.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dgm:ptLst>
+    <dgm:pt modelId="{6F2C1E18-5E0F-4A6C-AA4D-F8DA05C89786}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/hList1" loCatId="list" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2" csCatId="accent1" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ZA"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{797DE4DB-70F9-4FCB-B00D-DFD4534676FB}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ZA"/>
+            <a:t>Practice page</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4E5EC0F5-1113-4CA6-9C33-8958C39DC30B}" type="parTrans" cxnId="{2777046A-3C01-4C49-B591-0555C6ADAC95}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ZA"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{996A8DC2-A6E5-4897-8987-245E4F69B7FE}" type="sibTrans" cxnId="{2777046A-3C01-4C49-B591-0555C6ADAC95}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ZA"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{97F3D34E-450D-41B5-9CB0-B05F294840DA}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ZA"/>
+            <a:t>Admin has setup this page already</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{04588F6E-896C-4193-9F7B-602AC9E4FDA3}" type="parTrans" cxnId="{57D578BD-8DC5-4CCD-BE98-045CDCFA9887}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ZA"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7E0B7F38-C1B2-4781-BEA2-756A93EC7D15}" type="sibTrans" cxnId="{57D578BD-8DC5-4CCD-BE98-045CDCFA9887}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ZA"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C4F0EA16-E75D-4192-9F0C-5EC06CA68142}" type="pres">
+      <dgm:prSet presAssocID="{6F2C1E18-5E0F-4A6C-AA4D-F8DA05C89786}" presName="Name0" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:dir/>
+          <dgm:animLvl val="lvl"/>
+          <dgm:resizeHandles val="exact"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6FD84694-CFC9-4680-97C5-E7BE1E6B001A}" type="pres">
+      <dgm:prSet presAssocID="{797DE4DB-70F9-4FCB-B00D-DFD4534676FB}" presName="composite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8F623748-FB17-434F-83BC-FAE2DFA014F9}" type="pres">
+      <dgm:prSet presAssocID="{797DE4DB-70F9-4FCB-B00D-DFD4534676FB}" presName="parTx" presStyleLbl="alignNode1" presStyleIdx="0" presStyleCnt="1" custLinFactNeighborY="-4112">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="0"/>
+          <dgm:chPref val="0"/>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3ED472FB-D928-4CF7-9D01-0D232349CACB}" type="pres">
+      <dgm:prSet presAssocID="{797DE4DB-70F9-4FCB-B00D-DFD4534676FB}" presName="desTx" presStyleLbl="alignAccFollowNode1" presStyleIdx="0" presStyleCnt="1">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+  </dgm:ptLst>
+  <dgm:cxnLst>
+    <dgm:cxn modelId="{3D329766-F423-48BB-9C41-067B0008F4D0}" type="presOf" srcId="{797DE4DB-70F9-4FCB-B00D-DFD4534676FB}" destId="{8F623748-FB17-434F-83BC-FAE2DFA014F9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{2777046A-3C01-4C49-B591-0555C6ADAC95}" srcId="{6F2C1E18-5E0F-4A6C-AA4D-F8DA05C89786}" destId="{797DE4DB-70F9-4FCB-B00D-DFD4534676FB}" srcOrd="0" destOrd="0" parTransId="{4E5EC0F5-1113-4CA6-9C33-8958C39DC30B}" sibTransId="{996A8DC2-A6E5-4897-8987-245E4F69B7FE}"/>
+    <dgm:cxn modelId="{B6E41272-B7DD-4ED4-9181-201B9B10525B}" type="presOf" srcId="{6F2C1E18-5E0F-4A6C-AA4D-F8DA05C89786}" destId="{C4F0EA16-E75D-4192-9F0C-5EC06CA68142}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{B7189CA5-A6B1-4107-9EFA-77565CAEE8FF}" type="presOf" srcId="{97F3D34E-450D-41B5-9CB0-B05F294840DA}" destId="{3ED472FB-D928-4CF7-9D01-0D232349CACB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{57D578BD-8DC5-4CCD-BE98-045CDCFA9887}" srcId="{797DE4DB-70F9-4FCB-B00D-DFD4534676FB}" destId="{97F3D34E-450D-41B5-9CB0-B05F294840DA}" srcOrd="0" destOrd="0" parTransId="{04588F6E-896C-4193-9F7B-602AC9E4FDA3}" sibTransId="{7E0B7F38-C1B2-4781-BEA2-756A93EC7D15}"/>
+    <dgm:cxn modelId="{B9285268-7F32-4751-A2C5-E8C24126C03C}" type="presParOf" srcId="{C4F0EA16-E75D-4192-9F0C-5EC06CA68142}" destId="{6FD84694-CFC9-4680-97C5-E7BE1E6B001A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{BFAF700A-5F0A-4CAC-8528-8F5C1D24FFC3}" type="presParOf" srcId="{6FD84694-CFC9-4680-97C5-E7BE1E6B001A}" destId="{8F623748-FB17-434F-83BC-FAE2DFA014F9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{E685F828-0C81-44BE-AA43-276D0CE71BBA}" type="presParOf" srcId="{6FD84694-CFC9-4680-97C5-E7BE1E6B001A}" destId="{3ED472FB-D928-4CF7-9D01-0D232349CACB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+  </dgm:cxnLst>
+  <dgm:bg/>
+  <dgm:whole/>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId10" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+  </dgm:extLst>
+</dgm:dataModel>
+</file>
+
+<file path=xl/diagrams/data3.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dgm:ptLst>
+    <dgm:pt modelId="{6F2C1E18-5E0F-4A6C-AA4D-F8DA05C89786}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/hList1" loCatId="list" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2" csCatId="accent1" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ZA"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{797DE4DB-70F9-4FCB-B00D-DFD4534676FB}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ZA"/>
+            <a:t>Practice Setup Page</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4E5EC0F5-1113-4CA6-9C33-8958C39DC30B}" type="parTrans" cxnId="{2777046A-3C01-4C49-B591-0555C6ADAC95}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ZA"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{996A8DC2-A6E5-4897-8987-245E4F69B7FE}" type="sibTrans" cxnId="{2777046A-3C01-4C49-B591-0555C6ADAC95}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ZA"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{97F3D34E-450D-41B5-9CB0-B05F294840DA}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ZA"/>
+            <a:t>Add user, speciality, setup specialty form</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{04588F6E-896C-4193-9F7B-602AC9E4FDA3}" type="parTrans" cxnId="{57D578BD-8DC5-4CCD-BE98-045CDCFA9887}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ZA"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7E0B7F38-C1B2-4781-BEA2-756A93EC7D15}" type="sibTrans" cxnId="{57D578BD-8DC5-4CCD-BE98-045CDCFA9887}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ZA"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C4F0EA16-E75D-4192-9F0C-5EC06CA68142}" type="pres">
+      <dgm:prSet presAssocID="{6F2C1E18-5E0F-4A6C-AA4D-F8DA05C89786}" presName="Name0" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:dir/>
+          <dgm:animLvl val="lvl"/>
+          <dgm:resizeHandles val="exact"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6FD84694-CFC9-4680-97C5-E7BE1E6B001A}" type="pres">
+      <dgm:prSet presAssocID="{797DE4DB-70F9-4FCB-B00D-DFD4534676FB}" presName="composite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8F623748-FB17-434F-83BC-FAE2DFA014F9}" type="pres">
+      <dgm:prSet presAssocID="{797DE4DB-70F9-4FCB-B00D-DFD4534676FB}" presName="parTx" presStyleLbl="alignNode1" presStyleIdx="0" presStyleCnt="1" custLinFactNeighborX="-18127" custLinFactNeighborY="-74979">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="0"/>
+          <dgm:chPref val="0"/>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3ED472FB-D928-4CF7-9D01-0D232349CACB}" type="pres">
+      <dgm:prSet presAssocID="{797DE4DB-70F9-4FCB-B00D-DFD4534676FB}" presName="desTx" presStyleLbl="alignAccFollowNode1" presStyleIdx="0" presStyleCnt="1">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+  </dgm:ptLst>
+  <dgm:cxnLst>
+    <dgm:cxn modelId="{3D329766-F423-48BB-9C41-067B0008F4D0}" type="presOf" srcId="{797DE4DB-70F9-4FCB-B00D-DFD4534676FB}" destId="{8F623748-FB17-434F-83BC-FAE2DFA014F9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{2777046A-3C01-4C49-B591-0555C6ADAC95}" srcId="{6F2C1E18-5E0F-4A6C-AA4D-F8DA05C89786}" destId="{797DE4DB-70F9-4FCB-B00D-DFD4534676FB}" srcOrd="0" destOrd="0" parTransId="{4E5EC0F5-1113-4CA6-9C33-8958C39DC30B}" sibTransId="{996A8DC2-A6E5-4897-8987-245E4F69B7FE}"/>
+    <dgm:cxn modelId="{B6E41272-B7DD-4ED4-9181-201B9B10525B}" type="presOf" srcId="{6F2C1E18-5E0F-4A6C-AA4D-F8DA05C89786}" destId="{C4F0EA16-E75D-4192-9F0C-5EC06CA68142}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{B7189CA5-A6B1-4107-9EFA-77565CAEE8FF}" type="presOf" srcId="{97F3D34E-450D-41B5-9CB0-B05F294840DA}" destId="{3ED472FB-D928-4CF7-9D01-0D232349CACB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{57D578BD-8DC5-4CCD-BE98-045CDCFA9887}" srcId="{797DE4DB-70F9-4FCB-B00D-DFD4534676FB}" destId="{97F3D34E-450D-41B5-9CB0-B05F294840DA}" srcOrd="0" destOrd="0" parTransId="{04588F6E-896C-4193-9F7B-602AC9E4FDA3}" sibTransId="{7E0B7F38-C1B2-4781-BEA2-756A93EC7D15}"/>
+    <dgm:cxn modelId="{B9285268-7F32-4751-A2C5-E8C24126C03C}" type="presParOf" srcId="{C4F0EA16-E75D-4192-9F0C-5EC06CA68142}" destId="{6FD84694-CFC9-4680-97C5-E7BE1E6B001A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{BFAF700A-5F0A-4CAC-8528-8F5C1D24FFC3}" type="presParOf" srcId="{6FD84694-CFC9-4680-97C5-E7BE1E6B001A}" destId="{8F623748-FB17-434F-83BC-FAE2DFA014F9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{E685F828-0C81-44BE-AA43-276D0CE71BBA}" type="presParOf" srcId="{6FD84694-CFC9-4680-97C5-E7BE1E6B001A}" destId="{3ED472FB-D928-4CF7-9D01-0D232349CACB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+  </dgm:cxnLst>
+  <dgm:bg/>
+  <dgm:whole/>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId15" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+  </dgm:extLst>
+</dgm:dataModel>
+</file>
+
+<file path=xl/diagrams/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{8F623748-FB17-434F-83BC-FAE2DFA014F9}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2522220" cy="691200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="170688" tIns="97536" rIns="170688" bIns="97536" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1066800">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-ZA" sz="2400" kern="1200"/>
+            <a:t>Login/Sign-Up</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="2522220" cy="691200"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{3ED472FB-D928-4CF7-9D01-0D232349CACB}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="0" y="712005"/>
+          <a:ext cx="2522220" cy="1054080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="90000"/>
+            <a:tint val="40000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="90000"/>
+              <a:tint val="40000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="128016" tIns="128016" rIns="170688" bIns="192024" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="228600" lvl="1" indent="-228600" algn="l" defTabSz="1066800">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-ZA" sz="2400" kern="1200"/>
+            <a:t>Standard login page</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="0" y="712005"/>
+        <a:ext cx="2522220" cy="1054080"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
+<file path=xl/diagrams/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{8F623748-FB17-434F-83BC-FAE2DFA014F9}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="0" y="67471"/>
+          <a:ext cx="2522220" cy="633600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="156464" tIns="89408" rIns="156464" bIns="89408" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="977900">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-ZA" sz="2200" kern="1200"/>
+            <a:t>Practice page</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="0" y="67471"/>
+        <a:ext cx="2522220" cy="633600"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{3ED472FB-D928-4CF7-9D01-0D232349CACB}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="0" y="727125"/>
+          <a:ext cx="2522220" cy="966240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="90000"/>
+            <a:tint val="40000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="90000"/>
+              <a:tint val="40000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="117348" tIns="117348" rIns="156464" bIns="176022" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="228600" lvl="1" indent="-228600" algn="l" defTabSz="977900">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-ZA" sz="2200" kern="1200"/>
+            <a:t>Admin has setup this page already</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="0" y="727125"/>
+        <a:ext cx="2522220" cy="966240"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
+<file path=xl/diagrams/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{8F623748-FB17-434F-83BC-FAE2DFA014F9}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2522220" cy="604800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="149352" tIns="85344" rIns="149352" bIns="85344" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="933450">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-ZA" sz="2100" kern="1200"/>
+            <a:t>Practice Setup Page</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="2522220" cy="604800"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{3ED472FB-D928-4CF7-9D01-0D232349CACB}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="0" y="604983"/>
+          <a:ext cx="2522220" cy="1181722"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="90000"/>
+            <a:tint val="40000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="90000"/>
+              <a:tint val="40000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="112014" tIns="112014" rIns="149352" bIns="168021" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="228600" lvl="1" indent="-228600" algn="l" defTabSz="933450">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-ZA" sz="2100" kern="1200"/>
+            <a:t>Add user, speciality, setup specialty form</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="0" y="604983"/>
+        <a:ext cx="2522220" cy="1181722"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
+<file path=xl/diagrams/layout1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/hList1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="list" pri="5000"/>
+    <dgm:cat type="convert" pri="5000"/>
+  </dgm:catLst>
+  <dgm:sampData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="11">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="12">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="21">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="22">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="3">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="31">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="32">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="4" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="5" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="13" srcId="1" destId="11" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="14" srcId="1" destId="12" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="23" srcId="2" destId="21" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="24" srcId="2" destId="22" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="33" srcId="3" destId="31" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="34" srcId="3" destId="32" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:sampData>
+  <dgm:styleData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="3" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="4" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:styleData>
+  <dgm:clrData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="3">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="4">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="5" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="7" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="8" srcId="0" destId="4" srcOrd="3" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:clrData>
+  <dgm:layoutNode name="Name0">
+    <dgm:varLst>
+      <dgm:dir/>
+      <dgm:animLvl val="lvl"/>
+      <dgm:resizeHandles val="exact"/>
+    </dgm:varLst>
+    <dgm:choose name="Name1">
+      <dgm:if name="Name2" func="var" arg="dir" op="equ" val="norm">
+        <dgm:alg type="lin"/>
+      </dgm:if>
+      <dgm:else name="Name3">
+        <dgm:alg type="lin">
+          <dgm:param type="linDir" val="fromR"/>
+        </dgm:alg>
+      </dgm:else>
+    </dgm:choose>
+    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+      <dgm:adjLst/>
+    </dgm:shape>
+    <dgm:presOf/>
+    <dgm:constrLst>
+      <dgm:constr type="h" for="ch" forName="composite" refType="h"/>
+      <dgm:constr type="w" for="ch" forName="composite" refType="w"/>
+      <dgm:constr type="w" for="des" forName="parTx"/>
+      <dgm:constr type="h" for="des" forName="parTx" op="equ"/>
+      <dgm:constr type="w" for="des" forName="desTx"/>
+      <dgm:constr type="h" for="des" forName="desTx" op="equ"/>
+      <dgm:constr type="primFontSz" for="des" forName="parTx" val="65"/>
+      <dgm:constr type="secFontSz" for="des" forName="desTx" refType="primFontSz" refFor="des" refForName="parTx" op="equ"/>
+      <dgm:constr type="h" for="des" forName="parTx" refType="primFontSz" refFor="des" refForName="parTx" fact="0.8"/>
+      <dgm:constr type="h" for="des" forName="desTx" refType="primFontSz" refFor="des" refForName="parTx" fact="1.22"/>
+      <dgm:constr type="w" for="ch" forName="space" refType="w" refFor="ch" refForName="composite" op="equ" fact="0.14"/>
+    </dgm:constrLst>
+    <dgm:ruleLst>
+      <dgm:rule type="w" for="ch" forName="composite" val="0" fact="NaN" max="NaN"/>
+      <dgm:rule type="primFontSz" for="des" forName="parTx" val="5" fact="NaN" max="NaN"/>
+    </dgm:ruleLst>
+    <dgm:forEach name="Name4" axis="ch" ptType="node">
+      <dgm:layoutNode name="composite">
+        <dgm:alg type="composite"/>
+        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+          <dgm:adjLst/>
+        </dgm:shape>
+        <dgm:presOf/>
+        <dgm:constrLst>
+          <dgm:constr type="l" for="ch" forName="parTx"/>
+          <dgm:constr type="w" for="ch" forName="parTx" refType="w"/>
+          <dgm:constr type="t" for="ch" forName="parTx"/>
+          <dgm:constr type="l" for="ch" forName="desTx"/>
+          <dgm:constr type="w" for="ch" forName="desTx" refType="w" refFor="ch" refForName="parTx"/>
+          <dgm:constr type="t" for="ch" forName="desTx" refType="h" refFor="ch" refForName="parTx"/>
+        </dgm:constrLst>
+        <dgm:ruleLst>
+          <dgm:rule type="h" val="INF" fact="NaN" max="NaN"/>
+        </dgm:ruleLst>
+        <dgm:layoutNode name="parTx" styleLbl="alignNode1">
+          <dgm:varLst>
+            <dgm:chMax val="0"/>
+            <dgm:chPref val="0"/>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:alg type="tx"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="self" ptType="node"/>
+          <dgm:constrLst>
+            <dgm:constr type="h" refType="w" op="lte" fact="0.4"/>
+            <dgm:constr type="h"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.32"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.32"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="h" val="INF" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+        <dgm:layoutNode name="desTx" styleLbl="alignAccFollowNode1">
+          <dgm:varLst>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:alg type="tx">
+            <dgm:param type="stBulletLvl" val="1"/>
+          </dgm:alg>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="des" ptType="node"/>
+          <dgm:constrLst>
+            <dgm:constr type="secFontSz" val="65"/>
+            <dgm:constr type="primFontSz" refType="secFontSz"/>
+            <dgm:constr type="h"/>
+            <dgm:constr type="lMarg" refType="primFontSz" fact="0.42"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.42"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.63"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="h" val="INF" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+      </dgm:layoutNode>
+      <dgm:forEach name="Name5" axis="followSib" ptType="sibTrans" cnt="1">
+        <dgm:layoutNode name="space">
+          <dgm:alg type="sp"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+          <dgm:constrLst/>
+          <dgm:ruleLst/>
+        </dgm:layoutNode>
+      </dgm:forEach>
+    </dgm:forEach>
+  </dgm:layoutNode>
+</dgm:layoutDef>
+</file>
+
+<file path=xl/diagrams/layout2.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/hList1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="list" pri="5000"/>
+    <dgm:cat type="convert" pri="5000"/>
+  </dgm:catLst>
+  <dgm:sampData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="11">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="12">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="21">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="22">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="3">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="31">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="32">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="4" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="5" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="13" srcId="1" destId="11" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="14" srcId="1" destId="12" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="23" srcId="2" destId="21" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="24" srcId="2" destId="22" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="33" srcId="3" destId="31" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="34" srcId="3" destId="32" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:sampData>
+  <dgm:styleData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="3" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="4" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:styleData>
+  <dgm:clrData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="3">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="4">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="5" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="7" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="8" srcId="0" destId="4" srcOrd="3" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:clrData>
+  <dgm:layoutNode name="Name0">
+    <dgm:varLst>
+      <dgm:dir/>
+      <dgm:animLvl val="lvl"/>
+      <dgm:resizeHandles val="exact"/>
+    </dgm:varLst>
+    <dgm:choose name="Name1">
+      <dgm:if name="Name2" func="var" arg="dir" op="equ" val="norm">
+        <dgm:alg type="lin"/>
+      </dgm:if>
+      <dgm:else name="Name3">
+        <dgm:alg type="lin">
+          <dgm:param type="linDir" val="fromR"/>
+        </dgm:alg>
+      </dgm:else>
+    </dgm:choose>
+    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+      <dgm:adjLst/>
+    </dgm:shape>
+    <dgm:presOf/>
+    <dgm:constrLst>
+      <dgm:constr type="h" for="ch" forName="composite" refType="h"/>
+      <dgm:constr type="w" for="ch" forName="composite" refType="w"/>
+      <dgm:constr type="w" for="des" forName="parTx"/>
+      <dgm:constr type="h" for="des" forName="parTx" op="equ"/>
+      <dgm:constr type="w" for="des" forName="desTx"/>
+      <dgm:constr type="h" for="des" forName="desTx" op="equ"/>
+      <dgm:constr type="primFontSz" for="des" forName="parTx" val="65"/>
+      <dgm:constr type="secFontSz" for="des" forName="desTx" refType="primFontSz" refFor="des" refForName="parTx" op="equ"/>
+      <dgm:constr type="h" for="des" forName="parTx" refType="primFontSz" refFor="des" refForName="parTx" fact="0.8"/>
+      <dgm:constr type="h" for="des" forName="desTx" refType="primFontSz" refFor="des" refForName="parTx" fact="1.22"/>
+      <dgm:constr type="w" for="ch" forName="space" refType="w" refFor="ch" refForName="composite" op="equ" fact="0.14"/>
+    </dgm:constrLst>
+    <dgm:ruleLst>
+      <dgm:rule type="w" for="ch" forName="composite" val="0" fact="NaN" max="NaN"/>
+      <dgm:rule type="primFontSz" for="des" forName="parTx" val="5" fact="NaN" max="NaN"/>
+    </dgm:ruleLst>
+    <dgm:forEach name="Name4" axis="ch" ptType="node">
+      <dgm:layoutNode name="composite">
+        <dgm:alg type="composite"/>
+        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+          <dgm:adjLst/>
+        </dgm:shape>
+        <dgm:presOf/>
+        <dgm:constrLst>
+          <dgm:constr type="l" for="ch" forName="parTx"/>
+          <dgm:constr type="w" for="ch" forName="parTx" refType="w"/>
+          <dgm:constr type="t" for="ch" forName="parTx"/>
+          <dgm:constr type="l" for="ch" forName="desTx"/>
+          <dgm:constr type="w" for="ch" forName="desTx" refType="w" refFor="ch" refForName="parTx"/>
+          <dgm:constr type="t" for="ch" forName="desTx" refType="h" refFor="ch" refForName="parTx"/>
+        </dgm:constrLst>
+        <dgm:ruleLst>
+          <dgm:rule type="h" val="INF" fact="NaN" max="NaN"/>
+        </dgm:ruleLst>
+        <dgm:layoutNode name="parTx" styleLbl="alignNode1">
+          <dgm:varLst>
+            <dgm:chMax val="0"/>
+            <dgm:chPref val="0"/>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:alg type="tx"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="self" ptType="node"/>
+          <dgm:constrLst>
+            <dgm:constr type="h" refType="w" op="lte" fact="0.4"/>
+            <dgm:constr type="h"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.32"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.32"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="h" val="INF" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+        <dgm:layoutNode name="desTx" styleLbl="alignAccFollowNode1">
+          <dgm:varLst>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:alg type="tx">
+            <dgm:param type="stBulletLvl" val="1"/>
+          </dgm:alg>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="des" ptType="node"/>
+          <dgm:constrLst>
+            <dgm:constr type="secFontSz" val="65"/>
+            <dgm:constr type="primFontSz" refType="secFontSz"/>
+            <dgm:constr type="h"/>
+            <dgm:constr type="lMarg" refType="primFontSz" fact="0.42"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.42"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.63"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="h" val="INF" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+      </dgm:layoutNode>
+      <dgm:forEach name="Name5" axis="followSib" ptType="sibTrans" cnt="1">
+        <dgm:layoutNode name="space">
+          <dgm:alg type="sp"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+          <dgm:constrLst/>
+          <dgm:ruleLst/>
+        </dgm:layoutNode>
+      </dgm:forEach>
+    </dgm:forEach>
+  </dgm:layoutNode>
+</dgm:layoutDef>
+</file>
+
+<file path=xl/diagrams/layout3.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/hList1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="list" pri="5000"/>
+    <dgm:cat type="convert" pri="5000"/>
+  </dgm:catLst>
+  <dgm:sampData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="11">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="12">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="21">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="22">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="3">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="31">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="32">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="4" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="5" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="13" srcId="1" destId="11" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="14" srcId="1" destId="12" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="23" srcId="2" destId="21" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="24" srcId="2" destId="22" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="33" srcId="3" destId="31" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="34" srcId="3" destId="32" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:sampData>
+  <dgm:styleData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="3" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="4" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:styleData>
+  <dgm:clrData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="3">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="4">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="5" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="7" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="8" srcId="0" destId="4" srcOrd="3" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:clrData>
+  <dgm:layoutNode name="Name0">
+    <dgm:varLst>
+      <dgm:dir/>
+      <dgm:animLvl val="lvl"/>
+      <dgm:resizeHandles val="exact"/>
+    </dgm:varLst>
+    <dgm:choose name="Name1">
+      <dgm:if name="Name2" func="var" arg="dir" op="equ" val="norm">
+        <dgm:alg type="lin"/>
+      </dgm:if>
+      <dgm:else name="Name3">
+        <dgm:alg type="lin">
+          <dgm:param type="linDir" val="fromR"/>
+        </dgm:alg>
+      </dgm:else>
+    </dgm:choose>
+    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+      <dgm:adjLst/>
+    </dgm:shape>
+    <dgm:presOf/>
+    <dgm:constrLst>
+      <dgm:constr type="h" for="ch" forName="composite" refType="h"/>
+      <dgm:constr type="w" for="ch" forName="composite" refType="w"/>
+      <dgm:constr type="w" for="des" forName="parTx"/>
+      <dgm:constr type="h" for="des" forName="parTx" op="equ"/>
+      <dgm:constr type="w" for="des" forName="desTx"/>
+      <dgm:constr type="h" for="des" forName="desTx" op="equ"/>
+      <dgm:constr type="primFontSz" for="des" forName="parTx" val="65"/>
+      <dgm:constr type="secFontSz" for="des" forName="desTx" refType="primFontSz" refFor="des" refForName="parTx" op="equ"/>
+      <dgm:constr type="h" for="des" forName="parTx" refType="primFontSz" refFor="des" refForName="parTx" fact="0.8"/>
+      <dgm:constr type="h" for="des" forName="desTx" refType="primFontSz" refFor="des" refForName="parTx" fact="1.22"/>
+      <dgm:constr type="w" for="ch" forName="space" refType="w" refFor="ch" refForName="composite" op="equ" fact="0.14"/>
+    </dgm:constrLst>
+    <dgm:ruleLst>
+      <dgm:rule type="w" for="ch" forName="composite" val="0" fact="NaN" max="NaN"/>
+      <dgm:rule type="primFontSz" for="des" forName="parTx" val="5" fact="NaN" max="NaN"/>
+    </dgm:ruleLst>
+    <dgm:forEach name="Name4" axis="ch" ptType="node">
+      <dgm:layoutNode name="composite">
+        <dgm:alg type="composite"/>
+        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+          <dgm:adjLst/>
+        </dgm:shape>
+        <dgm:presOf/>
+        <dgm:constrLst>
+          <dgm:constr type="l" for="ch" forName="parTx"/>
+          <dgm:constr type="w" for="ch" forName="parTx" refType="w"/>
+          <dgm:constr type="t" for="ch" forName="parTx"/>
+          <dgm:constr type="l" for="ch" forName="desTx"/>
+          <dgm:constr type="w" for="ch" forName="desTx" refType="w" refFor="ch" refForName="parTx"/>
+          <dgm:constr type="t" for="ch" forName="desTx" refType="h" refFor="ch" refForName="parTx"/>
+        </dgm:constrLst>
+        <dgm:ruleLst>
+          <dgm:rule type="h" val="INF" fact="NaN" max="NaN"/>
+        </dgm:ruleLst>
+        <dgm:layoutNode name="parTx" styleLbl="alignNode1">
+          <dgm:varLst>
+            <dgm:chMax val="0"/>
+            <dgm:chPref val="0"/>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:alg type="tx"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="self" ptType="node"/>
+          <dgm:constrLst>
+            <dgm:constr type="h" refType="w" op="lte" fact="0.4"/>
+            <dgm:constr type="h"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.32"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.32"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="h" val="INF" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+        <dgm:layoutNode name="desTx" styleLbl="alignAccFollowNode1">
+          <dgm:varLst>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:alg type="tx">
+            <dgm:param type="stBulletLvl" val="1"/>
+          </dgm:alg>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="des" ptType="node"/>
+          <dgm:constrLst>
+            <dgm:constr type="secFontSz" val="65"/>
+            <dgm:constr type="primFontSz" refType="secFontSz"/>
+            <dgm:constr type="h"/>
+            <dgm:constr type="lMarg" refType="primFontSz" fact="0.42"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.42"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.63"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="h" val="INF" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+      </dgm:layoutNode>
+      <dgm:forEach name="Name5" axis="followSib" ptType="sibTrans" cnt="1">
+        <dgm:layoutNode name="space">
+          <dgm:alg type="sp"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+          <dgm:constrLst/>
+          <dgm:ruleLst/>
+        </dgm:layoutNode>
+      </dgm:forEach>
+    </dgm:forEach>
+  </dgm:layoutNode>
+</dgm:layoutDef>
+</file>
+
+<file path=xl/diagrams/quickStyle1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="simple" pri="10100"/>
+  </dgm:catLst>
+  <dgm:scene3d>
+    <a:camera prst="orthographicFront"/>
+    <a:lightRig rig="threePt" dir="t"/>
+  </dgm:scene3d>
+  <dgm:styleLbl name="node0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="tx1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+</dgm:styleDef>
+</file>
+
+<file path=xl/diagrams/quickStyle2.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="simple" pri="10100"/>
+  </dgm:catLst>
+  <dgm:scene3d>
+    <a:camera prst="orthographicFront"/>
+    <a:lightRig rig="threePt" dir="t"/>
+  </dgm:scene3d>
+  <dgm:styleLbl name="node0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="tx1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+</dgm:styleDef>
+</file>
+
+<file path=xl/diagrams/quickStyle3.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="simple" pri="10100"/>
+  </dgm:catLst>
+  <dgm:scene3d>
+    <a:camera prst="orthographicFront"/>
+    <a:lightRig rig="threePt" dir="t"/>
+  </dgm:scene3d>
+  <dgm:styleLbl name="node0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="tx1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+</dgm:styleDef>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E0BCF27-76F9-4759-B05F-53C4F1EE850D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId1" r:lo="rId2" r:qs="rId3" r:cs="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagram 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1AED71B-9276-47E2-91DA-9DA6620A9E36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId6" r:lo="rId7" r:qs="rId8" r:cs="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagram 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{692CADB5-C24D-4F29-B253-49EF5F4939D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId11" r:lo="rId12" r:qs="rId13" r:cs="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Flowchart: Decision 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{090043A8-FFAB-42C0-9B3E-B86BB317C73E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3329940" y="1684020"/>
+          <a:ext cx="1783080" cy="1752600"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-ZA" sz="1200"/>
+            <a:t>User associated with Practice ?</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>169545</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Connector: Elbow 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8668EA0E-5B8F-4AEB-AE28-1EEE5C30E431}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5113020" y="2560320"/>
+          <a:ext cx="1059180" cy="1266825"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>40005</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Connector: Elbow 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42029FE3-0192-4436-863B-A600FC5BBFB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5113020" y="1320165"/>
+          <a:ext cx="1074420" cy="1240155"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 49291"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Connector: Elbow 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7EBB112-B505-4ABA-9538-DFB7785469EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2651760" y="2453640"/>
+          <a:ext cx="678180" cy="106680"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="306538" cy="342786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="TextBox 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18DA0D81-085F-4040-9EAF-23400D7CDE11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5311140" y="1744980"/>
+          <a:ext cx="306538" cy="342786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-ZA" sz="1600" b="1"/>
+            <a:t>N</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="306538" cy="342786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="TextBox 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1759C34C-C3E1-4DB3-93DF-F885D5BF4101}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5250180" y="2956560"/>
+          <a:ext cx="306538" cy="342786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-ZA" sz="1600" b="1"/>
+            <a:t>Y</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41AF5033-F417-4FC3-B7C6-77CD51345174}" name="Table1" displayName="Table1" ref="A1:D7" totalsRowShown="0">
-  <autoFilter ref="A1:D7" xr:uid="{3B7235C3-6908-4157-8EF9-C5244C6B6B9B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D6">
-    <sortCondition ref="A1:A6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41AF5033-F417-4FC3-B7C6-77CD51345174}" name="Table1" displayName="Table1" ref="A1:D9" totalsRowShown="0">
+  <autoFilter ref="A1:D9" xr:uid="{3B7235C3-6908-4157-8EF9-C5244C6B6B9B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D9">
+    <sortCondition ref="A1:A9"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{ACCC6779-1758-4157-9E5F-33A726478E11}" name="No."/>
@@ -422,10 +7818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -480,49 +7876,77 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -551,10 +7975,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D23E30C-BD5C-4E3F-A25F-281E3E35BC8D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Readme.xlsx
+++ b/Readme.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asif\OneDrive\My_Projects\Mine\Apps\MedicalFormsApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFA9AFB-9D0D-4907-914B-4E02811663C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B163EB-2385-42E2-8593-7743D0142323}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Files" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1650,6 +1651,2247 @@
 </file>
 
 <file path=xl/diagrams/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="accent1" pri="11200"/>
+  </dgm:catLst>
+  <dgm:styleLbl name="node0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+</dgm:colorsDef>
+</file>
+
+<file path=xl/diagrams/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="accent1" pri="11200"/>
+  </dgm:catLst>
+  <dgm:styleLbl name="node0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+</dgm:colorsDef>
+</file>
+
+<file path=xl/diagrams/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="accent1" pri="11200"/>
+  </dgm:catLst>
+  <dgm:styleLbl name="node0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+</dgm:colorsDef>
+</file>
+
+<file path=xl/diagrams/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2">
   <dgm:title val=""/>
   <dgm:desc val=""/>
@@ -2786,6 +5028,423 @@
     </dgm:pt>
     <dgm:pt modelId="{3ED472FB-D928-4CF7-9D01-0D232349CACB}" type="pres">
       <dgm:prSet presAssocID="{797DE4DB-70F9-4FCB-B00D-DFD4534676FB}" presName="desTx" presStyleLbl="alignAccFollowNode1" presStyleIdx="0" presStyleCnt="1">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+  </dgm:ptLst>
+  <dgm:cxnLst>
+    <dgm:cxn modelId="{3D329766-F423-48BB-9C41-067B0008F4D0}" type="presOf" srcId="{797DE4DB-70F9-4FCB-B00D-DFD4534676FB}" destId="{8F623748-FB17-434F-83BC-FAE2DFA014F9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{2777046A-3C01-4C49-B591-0555C6ADAC95}" srcId="{6F2C1E18-5E0F-4A6C-AA4D-F8DA05C89786}" destId="{797DE4DB-70F9-4FCB-B00D-DFD4534676FB}" srcOrd="0" destOrd="0" parTransId="{4E5EC0F5-1113-4CA6-9C33-8958C39DC30B}" sibTransId="{996A8DC2-A6E5-4897-8987-245E4F69B7FE}"/>
+    <dgm:cxn modelId="{B6E41272-B7DD-4ED4-9181-201B9B10525B}" type="presOf" srcId="{6F2C1E18-5E0F-4A6C-AA4D-F8DA05C89786}" destId="{C4F0EA16-E75D-4192-9F0C-5EC06CA68142}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{B7189CA5-A6B1-4107-9EFA-77565CAEE8FF}" type="presOf" srcId="{97F3D34E-450D-41B5-9CB0-B05F294840DA}" destId="{3ED472FB-D928-4CF7-9D01-0D232349CACB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{57D578BD-8DC5-4CCD-BE98-045CDCFA9887}" srcId="{797DE4DB-70F9-4FCB-B00D-DFD4534676FB}" destId="{97F3D34E-450D-41B5-9CB0-B05F294840DA}" srcOrd="0" destOrd="0" parTransId="{04588F6E-896C-4193-9F7B-602AC9E4FDA3}" sibTransId="{7E0B7F38-C1B2-4781-BEA2-756A93EC7D15}"/>
+    <dgm:cxn modelId="{B9285268-7F32-4751-A2C5-E8C24126C03C}" type="presParOf" srcId="{C4F0EA16-E75D-4192-9F0C-5EC06CA68142}" destId="{6FD84694-CFC9-4680-97C5-E7BE1E6B001A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{BFAF700A-5F0A-4CAC-8528-8F5C1D24FFC3}" type="presParOf" srcId="{6FD84694-CFC9-4680-97C5-E7BE1E6B001A}" destId="{8F623748-FB17-434F-83BC-FAE2DFA014F9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{E685F828-0C81-44BE-AA43-276D0CE71BBA}" type="presParOf" srcId="{6FD84694-CFC9-4680-97C5-E7BE1E6B001A}" destId="{3ED472FB-D928-4CF7-9D01-0D232349CACB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+  </dgm:cxnLst>
+  <dgm:bg/>
+  <dgm:whole/>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId15" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+  </dgm:extLst>
+</dgm:dataModel>
+</file>
+
+<file path=xl/diagrams/data4.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dgm:ptLst>
+    <dgm:pt modelId="{6F2C1E18-5E0F-4A6C-AA4D-F8DA05C89786}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/hList1" loCatId="list" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2" csCatId="accent1" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ZA"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{797DE4DB-70F9-4FCB-B00D-DFD4534676FB}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ZA"/>
+            <a:t>Login/Sign-Up</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4E5EC0F5-1113-4CA6-9C33-8958C39DC30B}" type="parTrans" cxnId="{2777046A-3C01-4C49-B591-0555C6ADAC95}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ZA"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{996A8DC2-A6E5-4897-8987-245E4F69B7FE}" type="sibTrans" cxnId="{2777046A-3C01-4C49-B591-0555C6ADAC95}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ZA"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{97F3D34E-450D-41B5-9CB0-B05F294840DA}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ZA"/>
+            <a:t>Standard login page</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{04588F6E-896C-4193-9F7B-602AC9E4FDA3}" type="parTrans" cxnId="{57D578BD-8DC5-4CCD-BE98-045CDCFA9887}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ZA"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7E0B7F38-C1B2-4781-BEA2-756A93EC7D15}" type="sibTrans" cxnId="{57D578BD-8DC5-4CCD-BE98-045CDCFA9887}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ZA"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C4F0EA16-E75D-4192-9F0C-5EC06CA68142}" type="pres">
+      <dgm:prSet presAssocID="{6F2C1E18-5E0F-4A6C-AA4D-F8DA05C89786}" presName="Name0" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:dir/>
+          <dgm:animLvl val="lvl"/>
+          <dgm:resizeHandles val="exact"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6FD84694-CFC9-4680-97C5-E7BE1E6B001A}" type="pres">
+      <dgm:prSet presAssocID="{797DE4DB-70F9-4FCB-B00D-DFD4534676FB}" presName="composite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8F623748-FB17-434F-83BC-FAE2DFA014F9}" type="pres">
+      <dgm:prSet presAssocID="{797DE4DB-70F9-4FCB-B00D-DFD4534676FB}" presName="parTx" presStyleLbl="alignNode1" presStyleIdx="0" presStyleCnt="1" custLinFactNeighborY="-4112">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="0"/>
+          <dgm:chPref val="0"/>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3ED472FB-D928-4CF7-9D01-0D232349CACB}" type="pres">
+      <dgm:prSet presAssocID="{797DE4DB-70F9-4FCB-B00D-DFD4534676FB}" presName="desTx" presStyleLbl="alignAccFollowNode1" presStyleIdx="0" presStyleCnt="1">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+  </dgm:ptLst>
+  <dgm:cxnLst>
+    <dgm:cxn modelId="{3D329766-F423-48BB-9C41-067B0008F4D0}" type="presOf" srcId="{797DE4DB-70F9-4FCB-B00D-DFD4534676FB}" destId="{8F623748-FB17-434F-83BC-FAE2DFA014F9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{2777046A-3C01-4C49-B591-0555C6ADAC95}" srcId="{6F2C1E18-5E0F-4A6C-AA4D-F8DA05C89786}" destId="{797DE4DB-70F9-4FCB-B00D-DFD4534676FB}" srcOrd="0" destOrd="0" parTransId="{4E5EC0F5-1113-4CA6-9C33-8958C39DC30B}" sibTransId="{996A8DC2-A6E5-4897-8987-245E4F69B7FE}"/>
+    <dgm:cxn modelId="{B6E41272-B7DD-4ED4-9181-201B9B10525B}" type="presOf" srcId="{6F2C1E18-5E0F-4A6C-AA4D-F8DA05C89786}" destId="{C4F0EA16-E75D-4192-9F0C-5EC06CA68142}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{B7189CA5-A6B1-4107-9EFA-77565CAEE8FF}" type="presOf" srcId="{97F3D34E-450D-41B5-9CB0-B05F294840DA}" destId="{3ED472FB-D928-4CF7-9D01-0D232349CACB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{57D578BD-8DC5-4CCD-BE98-045CDCFA9887}" srcId="{797DE4DB-70F9-4FCB-B00D-DFD4534676FB}" destId="{97F3D34E-450D-41B5-9CB0-B05F294840DA}" srcOrd="0" destOrd="0" parTransId="{04588F6E-896C-4193-9F7B-602AC9E4FDA3}" sibTransId="{7E0B7F38-C1B2-4781-BEA2-756A93EC7D15}"/>
+    <dgm:cxn modelId="{B9285268-7F32-4751-A2C5-E8C24126C03C}" type="presParOf" srcId="{C4F0EA16-E75D-4192-9F0C-5EC06CA68142}" destId="{6FD84694-CFC9-4680-97C5-E7BE1E6B001A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{BFAF700A-5F0A-4CAC-8528-8F5C1D24FFC3}" type="presParOf" srcId="{6FD84694-CFC9-4680-97C5-E7BE1E6B001A}" destId="{8F623748-FB17-434F-83BC-FAE2DFA014F9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{E685F828-0C81-44BE-AA43-276D0CE71BBA}" type="presParOf" srcId="{6FD84694-CFC9-4680-97C5-E7BE1E6B001A}" destId="{3ED472FB-D928-4CF7-9D01-0D232349CACB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+  </dgm:cxnLst>
+  <dgm:bg/>
+  <dgm:whole/>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId5" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+  </dgm:extLst>
+</dgm:dataModel>
+</file>
+
+<file path=xl/diagrams/data5.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dgm:ptLst>
+    <dgm:pt modelId="{6F2C1E18-5E0F-4A6C-AA4D-F8DA05C89786}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/hList1" loCatId="list" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2" csCatId="accent1" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ZA"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{797DE4DB-70F9-4FCB-B00D-DFD4534676FB}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ZA"/>
+            <a:t>Practice page</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4E5EC0F5-1113-4CA6-9C33-8958C39DC30B}" type="parTrans" cxnId="{2777046A-3C01-4C49-B591-0555C6ADAC95}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ZA"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{996A8DC2-A6E5-4897-8987-245E4F69B7FE}" type="sibTrans" cxnId="{2777046A-3C01-4C49-B591-0555C6ADAC95}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ZA"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{97F3D34E-450D-41B5-9CB0-B05F294840DA}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ZA"/>
+            <a:t>Admin has setup this page already</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{04588F6E-896C-4193-9F7B-602AC9E4FDA3}" type="parTrans" cxnId="{57D578BD-8DC5-4CCD-BE98-045CDCFA9887}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ZA"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7E0B7F38-C1B2-4781-BEA2-756A93EC7D15}" type="sibTrans" cxnId="{57D578BD-8DC5-4CCD-BE98-045CDCFA9887}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ZA"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C4F0EA16-E75D-4192-9F0C-5EC06CA68142}" type="pres">
+      <dgm:prSet presAssocID="{6F2C1E18-5E0F-4A6C-AA4D-F8DA05C89786}" presName="Name0" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:dir/>
+          <dgm:animLvl val="lvl"/>
+          <dgm:resizeHandles val="exact"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6FD84694-CFC9-4680-97C5-E7BE1E6B001A}" type="pres">
+      <dgm:prSet presAssocID="{797DE4DB-70F9-4FCB-B00D-DFD4534676FB}" presName="composite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8F623748-FB17-434F-83BC-FAE2DFA014F9}" type="pres">
+      <dgm:prSet presAssocID="{797DE4DB-70F9-4FCB-B00D-DFD4534676FB}" presName="parTx" presStyleLbl="alignNode1" presStyleIdx="0" presStyleCnt="1" custLinFactNeighborY="-4112">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="0"/>
+          <dgm:chPref val="0"/>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3ED472FB-D928-4CF7-9D01-0D232349CACB}" type="pres">
+      <dgm:prSet presAssocID="{797DE4DB-70F9-4FCB-B00D-DFD4534676FB}" presName="desTx" presStyleLbl="alignAccFollowNode1" presStyleIdx="0" presStyleCnt="1">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+  </dgm:ptLst>
+  <dgm:cxnLst>
+    <dgm:cxn modelId="{3D329766-F423-48BB-9C41-067B0008F4D0}" type="presOf" srcId="{797DE4DB-70F9-4FCB-B00D-DFD4534676FB}" destId="{8F623748-FB17-434F-83BC-FAE2DFA014F9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{2777046A-3C01-4C49-B591-0555C6ADAC95}" srcId="{6F2C1E18-5E0F-4A6C-AA4D-F8DA05C89786}" destId="{797DE4DB-70F9-4FCB-B00D-DFD4534676FB}" srcOrd="0" destOrd="0" parTransId="{4E5EC0F5-1113-4CA6-9C33-8958C39DC30B}" sibTransId="{996A8DC2-A6E5-4897-8987-245E4F69B7FE}"/>
+    <dgm:cxn modelId="{B6E41272-B7DD-4ED4-9181-201B9B10525B}" type="presOf" srcId="{6F2C1E18-5E0F-4A6C-AA4D-F8DA05C89786}" destId="{C4F0EA16-E75D-4192-9F0C-5EC06CA68142}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{B7189CA5-A6B1-4107-9EFA-77565CAEE8FF}" type="presOf" srcId="{97F3D34E-450D-41B5-9CB0-B05F294840DA}" destId="{3ED472FB-D928-4CF7-9D01-0D232349CACB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{57D578BD-8DC5-4CCD-BE98-045CDCFA9887}" srcId="{797DE4DB-70F9-4FCB-B00D-DFD4534676FB}" destId="{97F3D34E-450D-41B5-9CB0-B05F294840DA}" srcOrd="0" destOrd="0" parTransId="{04588F6E-896C-4193-9F7B-602AC9E4FDA3}" sibTransId="{7E0B7F38-C1B2-4781-BEA2-756A93EC7D15}"/>
+    <dgm:cxn modelId="{B9285268-7F32-4751-A2C5-E8C24126C03C}" type="presParOf" srcId="{C4F0EA16-E75D-4192-9F0C-5EC06CA68142}" destId="{6FD84694-CFC9-4680-97C5-E7BE1E6B001A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{BFAF700A-5F0A-4CAC-8528-8F5C1D24FFC3}" type="presParOf" srcId="{6FD84694-CFC9-4680-97C5-E7BE1E6B001A}" destId="{8F623748-FB17-434F-83BC-FAE2DFA014F9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{E685F828-0C81-44BE-AA43-276D0CE71BBA}" type="presParOf" srcId="{6FD84694-CFC9-4680-97C5-E7BE1E6B001A}" destId="{3ED472FB-D928-4CF7-9D01-0D232349CACB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+  </dgm:cxnLst>
+  <dgm:bg/>
+  <dgm:whole/>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId10" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+  </dgm:extLst>
+</dgm:dataModel>
+</file>
+
+<file path=xl/diagrams/data6.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dgm:ptLst>
+    <dgm:pt modelId="{6F2C1E18-5E0F-4A6C-AA4D-F8DA05C89786}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/hList1" loCatId="list" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2" csCatId="accent1" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ZA"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{797DE4DB-70F9-4FCB-B00D-DFD4534676FB}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ZA"/>
+            <a:t>Parse JSON File into WebForm</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4E5EC0F5-1113-4CA6-9C33-8958C39DC30B}" type="parTrans" cxnId="{2777046A-3C01-4C49-B591-0555C6ADAC95}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ZA"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{996A8DC2-A6E5-4897-8987-245E4F69B7FE}" type="sibTrans" cxnId="{2777046A-3C01-4C49-B591-0555C6ADAC95}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ZA"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{97F3D34E-450D-41B5-9CB0-B05F294840DA}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-ZA"/>
+            <a:t>JS File to read JSON file, parse into components and create web form</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{04588F6E-896C-4193-9F7B-602AC9E4FDA3}" type="parTrans" cxnId="{57D578BD-8DC5-4CCD-BE98-045CDCFA9887}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ZA"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7E0B7F38-C1B2-4781-BEA2-756A93EC7D15}" type="sibTrans" cxnId="{57D578BD-8DC5-4CCD-BE98-045CDCFA9887}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-ZA"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C4F0EA16-E75D-4192-9F0C-5EC06CA68142}" type="pres">
+      <dgm:prSet presAssocID="{6F2C1E18-5E0F-4A6C-AA4D-F8DA05C89786}" presName="Name0" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:dir/>
+          <dgm:animLvl val="lvl"/>
+          <dgm:resizeHandles val="exact"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6FD84694-CFC9-4680-97C5-E7BE1E6B001A}" type="pres">
+      <dgm:prSet presAssocID="{797DE4DB-70F9-4FCB-B00D-DFD4534676FB}" presName="composite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8F623748-FB17-434F-83BC-FAE2DFA014F9}" type="pres">
+      <dgm:prSet presAssocID="{797DE4DB-70F9-4FCB-B00D-DFD4534676FB}" presName="parTx" presStyleLbl="alignNode1" presStyleIdx="0" presStyleCnt="1" custLinFactNeighborX="-18127" custLinFactNeighborY="-74979">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="0"/>
+          <dgm:chPref val="0"/>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3ED472FB-D928-4CF7-9D01-0D232349CACB}" type="pres">
+      <dgm:prSet presAssocID="{797DE4DB-70F9-4FCB-B00D-DFD4534676FB}" presName="desTx" presStyleLbl="alignAccFollowNode1" presStyleIdx="0" presStyleCnt="1" custScaleY="147584" custLinFactNeighborY="11271">
         <dgm:presLayoutVars>
           <dgm:bulletEnabled val="1"/>
         </dgm:presLayoutVars>
@@ -3317,6 +5976,516 @@
       <dsp:txXfrm>
         <a:off x="0" y="604983"/>
         <a:ext cx="2522220" cy="1181722"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
+<file path=xl/diagrams/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{8F623748-FB17-434F-83BC-FAE2DFA014F9}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2522220" cy="691200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="170688" tIns="97536" rIns="170688" bIns="97536" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1066800">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-ZA" sz="2400" kern="1200"/>
+            <a:t>Login/Sign-Up</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="2522220" cy="691200"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{3ED472FB-D928-4CF7-9D01-0D232349CACB}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="0" y="712005"/>
+          <a:ext cx="2522220" cy="1054080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="90000"/>
+            <a:tint val="40000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="90000"/>
+              <a:tint val="40000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="128016" tIns="128016" rIns="170688" bIns="192024" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="228600" lvl="1" indent="-228600" algn="l" defTabSz="1066800">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-ZA" sz="2400" kern="1200"/>
+            <a:t>Standard login page</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="0" y="712005"/>
+        <a:ext cx="2522220" cy="1054080"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
+<file path=xl/diagrams/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{8F623748-FB17-434F-83BC-FAE2DFA014F9}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="0" y="67471"/>
+          <a:ext cx="2522220" cy="633600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="156464" tIns="89408" rIns="156464" bIns="89408" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="977900">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-ZA" sz="2200" kern="1200"/>
+            <a:t>Practice page</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="0" y="67471"/>
+        <a:ext cx="2522220" cy="633600"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{3ED472FB-D928-4CF7-9D01-0D232349CACB}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="0" y="727125"/>
+          <a:ext cx="2522220" cy="966240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="90000"/>
+            <a:tint val="40000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="90000"/>
+              <a:tint val="40000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="117348" tIns="117348" rIns="156464" bIns="176022" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="228600" lvl="1" indent="-228600" algn="l" defTabSz="977900">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-ZA" sz="2200" kern="1200"/>
+            <a:t>Admin has setup this page already</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="0" y="727125"/>
+        <a:ext cx="2522220" cy="966240"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
+<file path=xl/diagrams/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{8F623748-FB17-434F-83BC-FAE2DFA014F9}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2522220" cy="619422"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="120904" tIns="69088" rIns="120904" bIns="69088" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="755650">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-ZA" sz="1700" kern="1200"/>
+            <a:t>Parse JSON File into WebForm</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="2522220" cy="619422"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{3ED472FB-D928-4CF7-9D01-0D232349CACB}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="0" y="592223"/>
+          <a:ext cx="2522220" cy="1411836"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="90000"/>
+            <a:tint val="40000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="90000"/>
+              <a:tint val="40000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="90678" tIns="90678" rIns="120904" bIns="136017" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="755650">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-ZA" sz="1700" kern="1200"/>
+            <a:t>JS File to read JSON file, parse into components and create web form</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="0" y="592223"/>
+        <a:ext cx="2522220" cy="1411836"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -3974,6 +7143,657 @@
 </dgm:layoutDef>
 </file>
 
+<file path=xl/diagrams/layout4.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/hList1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="list" pri="5000"/>
+    <dgm:cat type="convert" pri="5000"/>
+  </dgm:catLst>
+  <dgm:sampData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="11">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="12">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="21">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="22">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="3">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="31">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="32">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="4" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="5" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="13" srcId="1" destId="11" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="14" srcId="1" destId="12" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="23" srcId="2" destId="21" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="24" srcId="2" destId="22" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="33" srcId="3" destId="31" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="34" srcId="3" destId="32" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:sampData>
+  <dgm:styleData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="3" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="4" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:styleData>
+  <dgm:clrData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="3">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="4">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="5" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="7" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="8" srcId="0" destId="4" srcOrd="3" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:clrData>
+  <dgm:layoutNode name="Name0">
+    <dgm:varLst>
+      <dgm:dir/>
+      <dgm:animLvl val="lvl"/>
+      <dgm:resizeHandles val="exact"/>
+    </dgm:varLst>
+    <dgm:choose name="Name1">
+      <dgm:if name="Name2" func="var" arg="dir" op="equ" val="norm">
+        <dgm:alg type="lin"/>
+      </dgm:if>
+      <dgm:else name="Name3">
+        <dgm:alg type="lin">
+          <dgm:param type="linDir" val="fromR"/>
+        </dgm:alg>
+      </dgm:else>
+    </dgm:choose>
+    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+      <dgm:adjLst/>
+    </dgm:shape>
+    <dgm:presOf/>
+    <dgm:constrLst>
+      <dgm:constr type="h" for="ch" forName="composite" refType="h"/>
+      <dgm:constr type="w" for="ch" forName="composite" refType="w"/>
+      <dgm:constr type="w" for="des" forName="parTx"/>
+      <dgm:constr type="h" for="des" forName="parTx" op="equ"/>
+      <dgm:constr type="w" for="des" forName="desTx"/>
+      <dgm:constr type="h" for="des" forName="desTx" op="equ"/>
+      <dgm:constr type="primFontSz" for="des" forName="parTx" val="65"/>
+      <dgm:constr type="secFontSz" for="des" forName="desTx" refType="primFontSz" refFor="des" refForName="parTx" op="equ"/>
+      <dgm:constr type="h" for="des" forName="parTx" refType="primFontSz" refFor="des" refForName="parTx" fact="0.8"/>
+      <dgm:constr type="h" for="des" forName="desTx" refType="primFontSz" refFor="des" refForName="parTx" fact="1.22"/>
+      <dgm:constr type="w" for="ch" forName="space" refType="w" refFor="ch" refForName="composite" op="equ" fact="0.14"/>
+    </dgm:constrLst>
+    <dgm:ruleLst>
+      <dgm:rule type="w" for="ch" forName="composite" val="0" fact="NaN" max="NaN"/>
+      <dgm:rule type="primFontSz" for="des" forName="parTx" val="5" fact="NaN" max="NaN"/>
+    </dgm:ruleLst>
+    <dgm:forEach name="Name4" axis="ch" ptType="node">
+      <dgm:layoutNode name="composite">
+        <dgm:alg type="composite"/>
+        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+          <dgm:adjLst/>
+        </dgm:shape>
+        <dgm:presOf/>
+        <dgm:constrLst>
+          <dgm:constr type="l" for="ch" forName="parTx"/>
+          <dgm:constr type="w" for="ch" forName="parTx" refType="w"/>
+          <dgm:constr type="t" for="ch" forName="parTx"/>
+          <dgm:constr type="l" for="ch" forName="desTx"/>
+          <dgm:constr type="w" for="ch" forName="desTx" refType="w" refFor="ch" refForName="parTx"/>
+          <dgm:constr type="t" for="ch" forName="desTx" refType="h" refFor="ch" refForName="parTx"/>
+        </dgm:constrLst>
+        <dgm:ruleLst>
+          <dgm:rule type="h" val="INF" fact="NaN" max="NaN"/>
+        </dgm:ruleLst>
+        <dgm:layoutNode name="parTx" styleLbl="alignNode1">
+          <dgm:varLst>
+            <dgm:chMax val="0"/>
+            <dgm:chPref val="0"/>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:alg type="tx"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="self" ptType="node"/>
+          <dgm:constrLst>
+            <dgm:constr type="h" refType="w" op="lte" fact="0.4"/>
+            <dgm:constr type="h"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.32"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.32"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="h" val="INF" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+        <dgm:layoutNode name="desTx" styleLbl="alignAccFollowNode1">
+          <dgm:varLst>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:alg type="tx">
+            <dgm:param type="stBulletLvl" val="1"/>
+          </dgm:alg>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="des" ptType="node"/>
+          <dgm:constrLst>
+            <dgm:constr type="secFontSz" val="65"/>
+            <dgm:constr type="primFontSz" refType="secFontSz"/>
+            <dgm:constr type="h"/>
+            <dgm:constr type="lMarg" refType="primFontSz" fact="0.42"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.42"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.63"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="h" val="INF" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+      </dgm:layoutNode>
+      <dgm:forEach name="Name5" axis="followSib" ptType="sibTrans" cnt="1">
+        <dgm:layoutNode name="space">
+          <dgm:alg type="sp"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+          <dgm:constrLst/>
+          <dgm:ruleLst/>
+        </dgm:layoutNode>
+      </dgm:forEach>
+    </dgm:forEach>
+  </dgm:layoutNode>
+</dgm:layoutDef>
+</file>
+
+<file path=xl/diagrams/layout5.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/hList1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="list" pri="5000"/>
+    <dgm:cat type="convert" pri="5000"/>
+  </dgm:catLst>
+  <dgm:sampData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="11">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="12">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="21">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="22">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="3">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="31">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="32">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="4" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="5" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="13" srcId="1" destId="11" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="14" srcId="1" destId="12" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="23" srcId="2" destId="21" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="24" srcId="2" destId="22" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="33" srcId="3" destId="31" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="34" srcId="3" destId="32" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:sampData>
+  <dgm:styleData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="3" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="4" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:styleData>
+  <dgm:clrData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="3">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="4">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="5" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="7" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="8" srcId="0" destId="4" srcOrd="3" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:clrData>
+  <dgm:layoutNode name="Name0">
+    <dgm:varLst>
+      <dgm:dir/>
+      <dgm:animLvl val="lvl"/>
+      <dgm:resizeHandles val="exact"/>
+    </dgm:varLst>
+    <dgm:choose name="Name1">
+      <dgm:if name="Name2" func="var" arg="dir" op="equ" val="norm">
+        <dgm:alg type="lin"/>
+      </dgm:if>
+      <dgm:else name="Name3">
+        <dgm:alg type="lin">
+          <dgm:param type="linDir" val="fromR"/>
+        </dgm:alg>
+      </dgm:else>
+    </dgm:choose>
+    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+      <dgm:adjLst/>
+    </dgm:shape>
+    <dgm:presOf/>
+    <dgm:constrLst>
+      <dgm:constr type="h" for="ch" forName="composite" refType="h"/>
+      <dgm:constr type="w" for="ch" forName="composite" refType="w"/>
+      <dgm:constr type="w" for="des" forName="parTx"/>
+      <dgm:constr type="h" for="des" forName="parTx" op="equ"/>
+      <dgm:constr type="w" for="des" forName="desTx"/>
+      <dgm:constr type="h" for="des" forName="desTx" op="equ"/>
+      <dgm:constr type="primFontSz" for="des" forName="parTx" val="65"/>
+      <dgm:constr type="secFontSz" for="des" forName="desTx" refType="primFontSz" refFor="des" refForName="parTx" op="equ"/>
+      <dgm:constr type="h" for="des" forName="parTx" refType="primFontSz" refFor="des" refForName="parTx" fact="0.8"/>
+      <dgm:constr type="h" for="des" forName="desTx" refType="primFontSz" refFor="des" refForName="parTx" fact="1.22"/>
+      <dgm:constr type="w" for="ch" forName="space" refType="w" refFor="ch" refForName="composite" op="equ" fact="0.14"/>
+    </dgm:constrLst>
+    <dgm:ruleLst>
+      <dgm:rule type="w" for="ch" forName="composite" val="0" fact="NaN" max="NaN"/>
+      <dgm:rule type="primFontSz" for="des" forName="parTx" val="5" fact="NaN" max="NaN"/>
+    </dgm:ruleLst>
+    <dgm:forEach name="Name4" axis="ch" ptType="node">
+      <dgm:layoutNode name="composite">
+        <dgm:alg type="composite"/>
+        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+          <dgm:adjLst/>
+        </dgm:shape>
+        <dgm:presOf/>
+        <dgm:constrLst>
+          <dgm:constr type="l" for="ch" forName="parTx"/>
+          <dgm:constr type="w" for="ch" forName="parTx" refType="w"/>
+          <dgm:constr type="t" for="ch" forName="parTx"/>
+          <dgm:constr type="l" for="ch" forName="desTx"/>
+          <dgm:constr type="w" for="ch" forName="desTx" refType="w" refFor="ch" refForName="parTx"/>
+          <dgm:constr type="t" for="ch" forName="desTx" refType="h" refFor="ch" refForName="parTx"/>
+        </dgm:constrLst>
+        <dgm:ruleLst>
+          <dgm:rule type="h" val="INF" fact="NaN" max="NaN"/>
+        </dgm:ruleLst>
+        <dgm:layoutNode name="parTx" styleLbl="alignNode1">
+          <dgm:varLst>
+            <dgm:chMax val="0"/>
+            <dgm:chPref val="0"/>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:alg type="tx"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="self" ptType="node"/>
+          <dgm:constrLst>
+            <dgm:constr type="h" refType="w" op="lte" fact="0.4"/>
+            <dgm:constr type="h"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.32"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.32"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="h" val="INF" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+        <dgm:layoutNode name="desTx" styleLbl="alignAccFollowNode1">
+          <dgm:varLst>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:alg type="tx">
+            <dgm:param type="stBulletLvl" val="1"/>
+          </dgm:alg>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="des" ptType="node"/>
+          <dgm:constrLst>
+            <dgm:constr type="secFontSz" val="65"/>
+            <dgm:constr type="primFontSz" refType="secFontSz"/>
+            <dgm:constr type="h"/>
+            <dgm:constr type="lMarg" refType="primFontSz" fact="0.42"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.42"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.63"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="h" val="INF" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+      </dgm:layoutNode>
+      <dgm:forEach name="Name5" axis="followSib" ptType="sibTrans" cnt="1">
+        <dgm:layoutNode name="space">
+          <dgm:alg type="sp"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+          <dgm:constrLst/>
+          <dgm:ruleLst/>
+        </dgm:layoutNode>
+      </dgm:forEach>
+    </dgm:forEach>
+  </dgm:layoutNode>
+</dgm:layoutDef>
+</file>
+
+<file path=xl/diagrams/layout6.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/hList1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="list" pri="5000"/>
+    <dgm:cat type="convert" pri="5000"/>
+  </dgm:catLst>
+  <dgm:sampData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="11">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="12">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="21">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="22">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="3">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="31">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="32">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="4" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="5" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="13" srcId="1" destId="11" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="14" srcId="1" destId="12" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="23" srcId="2" destId="21" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="24" srcId="2" destId="22" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="33" srcId="3" destId="31" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="34" srcId="3" destId="32" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:sampData>
+  <dgm:styleData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="3" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="4" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:styleData>
+  <dgm:clrData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="3">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="4">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="5" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="7" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="8" srcId="0" destId="4" srcOrd="3" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:clrData>
+  <dgm:layoutNode name="Name0">
+    <dgm:varLst>
+      <dgm:dir/>
+      <dgm:animLvl val="lvl"/>
+      <dgm:resizeHandles val="exact"/>
+    </dgm:varLst>
+    <dgm:choose name="Name1">
+      <dgm:if name="Name2" func="var" arg="dir" op="equ" val="norm">
+        <dgm:alg type="lin"/>
+      </dgm:if>
+      <dgm:else name="Name3">
+        <dgm:alg type="lin">
+          <dgm:param type="linDir" val="fromR"/>
+        </dgm:alg>
+      </dgm:else>
+    </dgm:choose>
+    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+      <dgm:adjLst/>
+    </dgm:shape>
+    <dgm:presOf/>
+    <dgm:constrLst>
+      <dgm:constr type="h" for="ch" forName="composite" refType="h"/>
+      <dgm:constr type="w" for="ch" forName="composite" refType="w"/>
+      <dgm:constr type="w" for="des" forName="parTx"/>
+      <dgm:constr type="h" for="des" forName="parTx" op="equ"/>
+      <dgm:constr type="w" for="des" forName="desTx"/>
+      <dgm:constr type="h" for="des" forName="desTx" op="equ"/>
+      <dgm:constr type="primFontSz" for="des" forName="parTx" val="65"/>
+      <dgm:constr type="secFontSz" for="des" forName="desTx" refType="primFontSz" refFor="des" refForName="parTx" op="equ"/>
+      <dgm:constr type="h" for="des" forName="parTx" refType="primFontSz" refFor="des" refForName="parTx" fact="0.8"/>
+      <dgm:constr type="h" for="des" forName="desTx" refType="primFontSz" refFor="des" refForName="parTx" fact="1.22"/>
+      <dgm:constr type="w" for="ch" forName="space" refType="w" refFor="ch" refForName="composite" op="equ" fact="0.14"/>
+    </dgm:constrLst>
+    <dgm:ruleLst>
+      <dgm:rule type="w" for="ch" forName="composite" val="0" fact="NaN" max="NaN"/>
+      <dgm:rule type="primFontSz" for="des" forName="parTx" val="5" fact="NaN" max="NaN"/>
+    </dgm:ruleLst>
+    <dgm:forEach name="Name4" axis="ch" ptType="node">
+      <dgm:layoutNode name="composite">
+        <dgm:alg type="composite"/>
+        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+          <dgm:adjLst/>
+        </dgm:shape>
+        <dgm:presOf/>
+        <dgm:constrLst>
+          <dgm:constr type="l" for="ch" forName="parTx"/>
+          <dgm:constr type="w" for="ch" forName="parTx" refType="w"/>
+          <dgm:constr type="t" for="ch" forName="parTx"/>
+          <dgm:constr type="l" for="ch" forName="desTx"/>
+          <dgm:constr type="w" for="ch" forName="desTx" refType="w" refFor="ch" refForName="parTx"/>
+          <dgm:constr type="t" for="ch" forName="desTx" refType="h" refFor="ch" refForName="parTx"/>
+        </dgm:constrLst>
+        <dgm:ruleLst>
+          <dgm:rule type="h" val="INF" fact="NaN" max="NaN"/>
+        </dgm:ruleLst>
+        <dgm:layoutNode name="parTx" styleLbl="alignNode1">
+          <dgm:varLst>
+            <dgm:chMax val="0"/>
+            <dgm:chPref val="0"/>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:alg type="tx"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="self" ptType="node"/>
+          <dgm:constrLst>
+            <dgm:constr type="h" refType="w" op="lte" fact="0.4"/>
+            <dgm:constr type="h"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.32"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.32"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="h" val="INF" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+        <dgm:layoutNode name="desTx" styleLbl="alignAccFollowNode1">
+          <dgm:varLst>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:alg type="tx">
+            <dgm:param type="stBulletLvl" val="1"/>
+          </dgm:alg>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="des" ptType="node"/>
+          <dgm:constrLst>
+            <dgm:constr type="secFontSz" val="65"/>
+            <dgm:constr type="primFontSz" refType="secFontSz"/>
+            <dgm:constr type="h"/>
+            <dgm:constr type="lMarg" refType="primFontSz" fact="0.42"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.42"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.63"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="h" val="INF" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+      </dgm:layoutNode>
+      <dgm:forEach name="Name5" axis="followSib" ptType="sibTrans" cnt="1">
+        <dgm:layoutNode name="space">
+          <dgm:alg type="sp"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+          <dgm:constrLst/>
+          <dgm:ruleLst/>
+        </dgm:layoutNode>
+      </dgm:forEach>
+    </dgm:forEach>
+  </dgm:layoutNode>
+</dgm:layoutDef>
+</file>
+
 <file path=xl/diagrams/quickStyle1.xml><?xml version="1.0" encoding="utf-8"?>
 <dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
   <dgm:title val=""/>
@@ -6043,6 +9863,3108 @@
 </file>
 
 <file path=xl/diagrams/quickStyle3.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="simple" pri="10100"/>
+  </dgm:catLst>
+  <dgm:scene3d>
+    <a:camera prst="orthographicFront"/>
+    <a:lightRig rig="threePt" dir="t"/>
+  </dgm:scene3d>
+  <dgm:styleLbl name="node0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="tx1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+</dgm:styleDef>
+</file>
+
+<file path=xl/diagrams/quickStyle4.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="simple" pri="10100"/>
+  </dgm:catLst>
+  <dgm:scene3d>
+    <a:camera prst="orthographicFront"/>
+    <a:lightRig rig="threePt" dir="t"/>
+  </dgm:scene3d>
+  <dgm:styleLbl name="node0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="tx1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+</dgm:styleDef>
+</file>
+
+<file path=xl/diagrams/quickStyle5.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="simple" pri="10100"/>
+  </dgm:catLst>
+  <dgm:scene3d>
+    <a:camera prst="orthographicFront"/>
+    <a:lightRig rig="threePt" dir="t"/>
+  </dgm:scene3d>
+  <dgm:styleLbl name="node0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="tx1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+</dgm:styleDef>
+</file>
+
+<file path=xl/diagrams/quickStyle6.xml><?xml version="1.0" encoding="utf-8"?>
 <dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
   <dgm:title val=""/>
   <dgm:desc val=""/>
@@ -7491,6 +14413,402 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1759C34C-C3E1-4DB3-93DF-F885D5BF4101}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5250180" y="2956560"/>
+          <a:ext cx="306538" cy="342786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-ZA" sz="1600" b="1"/>
+            <a:t>Y</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAE949D8-9F9C-4312-B4F0-81E12A9919CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId1" r:lo="rId2" r:qs="rId3" r:cs="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96EFAB7A-6A67-4054-9CA9-9FA09026600B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId6" r:lo="rId7" r:qs="rId8" r:cs="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagram 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D27CBAB-6C02-403B-99C4-56759DBC106B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId11" r:lo="rId12" r:qs="rId13" r:cs="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>169545</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Connector: Elbow 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41084C36-D0B9-475B-9C5E-9E48B4CDB302}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4533900" y="2560320"/>
+          <a:ext cx="1059180" cy="1266825"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>426721</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>110491</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>144783</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Connector: Elbow 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F886C1F-9783-4638-B189-8EAAAD423633}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="4665345" y="1053467"/>
+          <a:ext cx="1131572" cy="1074419"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Connector: Elbow 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1A45969-3F1F-46EB-BAD9-9742539C7ACF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2651760" y="2453640"/>
+          <a:ext cx="678180" cy="106680"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="306538" cy="342786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{585805DF-1614-4D88-B47C-D0FD11C95B7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5311140" y="1744980"/>
+          <a:ext cx="306538" cy="342786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-ZA" sz="1600" b="1"/>
+            <a:t>N</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="306538" cy="342786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7129124-19DC-4171-A259-66EBDCFFB849}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7975,7 +15293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D23E30C-BD5C-4E3F-A25F-281E3E35BC8D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
@@ -7984,4 +15302,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F781D020-8667-4CA7-BAA1-16B72F335F84}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Readme.xlsx
+++ b/Readme.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asif\OneDrive\My_Projects\Mine\Apps\MedicalFormsApp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asif\OneDrive\My_Projects\Mine\Apps\Forms - Medical App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B163EB-2385-42E2-8593-7743D0142323}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB894B0-529D-486E-89F1-6C1E7CC038C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Files" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>No.</t>
   </si>
@@ -88,6 +88,27 @@
   <si>
     <t>Git folder tracking changes and commits. Source files are hosted on GitHub in a Private Repo.</t>
   </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>certificate.crt</t>
+  </si>
+  <si>
+    <t>privateKey.key</t>
+  </si>
+  <si>
+    <t>Required for testing voicerecognition on mobile browser. Without it cannot get access to the microphone. Also used in live server (in visual studio code). Companion file is certificate.crt</t>
+  </si>
+  <si>
+    <t>C:\Users\Asif\OneDrive\My_Projects\Mine\Apps\Forms - Medical App\Certificates</t>
+  </si>
+  <si>
+    <t>Required for testing voicerecognition on mobile browser. Without it cannot get access to the microphone. Also used in live server (in visual studio code). Companion file is privateKey.key
+Had to install Openssl
+Command: req -x509 -sha256 -nodes -days 365 -newkey rsa:2048 -keyout privateKey.key -out certificate.crt
+Run as administrator otherwise wont save the files</t>
+  </si>
 </sst>
 </file>
 
@@ -122,8 +143,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14858,14 +14882,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41AF5033-F417-4FC3-B7C6-77CD51345174}" name="Table1" displayName="Table1" ref="A1:D9" totalsRowShown="0">
-  <autoFilter ref="A1:D9" xr:uid="{3B7235C3-6908-4157-8EF9-C5244C6B6B9B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41AF5033-F417-4FC3-B7C6-77CD51345174}" name="Table1" displayName="Table1" ref="A1:E10" totalsRowShown="0">
+  <autoFilter ref="A1:E10" xr:uid="{3B7235C3-6908-4157-8EF9-C5244C6B6B9B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E9">
     <sortCondition ref="A1:A9"/>
   </sortState>
-  <tableColumns count="4">
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{ACCC6779-1758-4157-9E5F-33A726478E11}" name="No."/>
     <tableColumn id="2" xr3:uid="{2268FAEC-7595-47B2-9770-396C7DFE7E61}" name="File/Folder Name"/>
+    <tableColumn id="4" xr3:uid="{7D7FB618-E521-4A4A-982B-9C5561678805}" name="Location"/>
     <tableColumn id="5" xr3:uid="{FE1B1D29-1EB5-4D3A-8934-011AF68E3828}" name="File or Folder"/>
     <tableColumn id="3" xr3:uid="{A75A6A09-A7A0-4131-939D-E93AC59A4B65}" name="Purpose"/>
   </tableColumns>
@@ -15136,21 +15161,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.5546875" customWidth="1"/>
-    <col min="2" max="2" width="26.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" customWidth="1"/>
-    <col min="4" max="4" width="122" customWidth="1"/>
+    <col min="2" max="3" width="26.77734375" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+    <col min="5" max="5" width="98.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15158,117 +15183,149 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C1048576">
+  <conditionalFormatting sqref="D1:D1048576">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Folder"</formula>
     </cfRule>
@@ -15277,7 +15334,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{F4F7E71D-B77E-4D4D-8FA6-9329D67649A5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{F4F7E71D-B77E-4D4D-8FA6-9329D67649A5}">
       <formula1>"File, Folder"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15308,7 +15365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F781D020-8667-4CA7-BAA1-16B72F335F84}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
